--- a/src/main/resources/excel/2. Adjective.xlsx
+++ b/src/main/resources/excel/2. Adjective.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="536">
   <si>
     <t xml:space="preserve">abundant</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t xml:space="preserve">əˈbʌndənt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EXAMPLE</t>
   </si>
   <si>
     <t xml:space="preserve">accompanying</t>
@@ -1900,12 +1903,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1939,15 +1946,6 @@
     <cellStyle name="Text 6" xfId="35"/>
     <cellStyle name="Warning 14" xfId="36"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2123,10 +2121,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2148,544 +2146,690 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
+      <c r="A3" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B26" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>72</v>
+      <c r="F26" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>114</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2705,10 +2849,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A107" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F41" activeCellId="0" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2717,559 +2861,705 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="20.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1000" min="5" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16360" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16360" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>146</v>
       </c>
+      <c r="B1" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="D1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>154</v>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>165</v>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>179</v>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>199</v>
-      </c>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B35" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>242</v>
+      <c r="F35" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="C37" s="2"/>
+      <c r="B37" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" s="3"/>
       <c r="D37" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D38" s="1" t="s">
-        <v>250</v>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>255</v>
-      </c>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="C41" s="2"/>
+      <c r="B41" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C41" s="3"/>
       <c r="D41" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B44" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D44" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D44" s="1" t="s">
-        <v>266</v>
+      <c r="F44" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B46" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>271</v>
+      <c r="F46" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>281</v>
+        <v>282</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3289,10 +3579,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3301,557 +3591,703 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="20.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1000" min="5" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16360" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16360" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>339</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>394</v>
+      <c r="F39" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>396</v>
-      </c>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>398</v>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3871,10 +4307,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A57" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F40" activeCellId="0" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3883,557 +4319,703 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="20.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1000" min="5" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16360" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16360" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>290</v>
+        <v>291</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>299</v>
+        <v>300</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>308</v>
+        <v>309</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>310</v>
+        <v>311</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>313</v>
+        <v>314</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>316</v>
+        <v>317</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>322</v>
+        <v>323</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>325</v>
+        <v>326</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>331</v>
+        <v>332</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>333</v>
+        <v>334</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>336</v>
+        <v>337</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>339</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>348</v>
+        <v>349</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>351</v>
+        <v>352</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>357</v>
+        <v>358</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>366</v>
+        <v>367</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>369</v>
+        <v>370</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>375</v>
+        <v>376</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>378</v>
+        <v>379</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>381</v>
+        <v>382</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>384</v>
+        <v>385</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>393</v>
+        <v>394</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B39" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>394</v>
+      <c r="F39" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>396</v>
-      </c>
+      <c r="F40" s="2"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>398</v>
+      <c r="F41" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>402</v>
+        <v>403</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>408</v>
+        <v>409</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>411</v>
+        <v>412</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>420</v>
+        <v>421</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4453,10 +5035,10 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4465,447 +5047,565 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="47.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="20.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1000" min="5" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16360" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16360" style="1" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>426</v>
+        <v>427</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>429</v>
+        <v>430</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>432</v>
+        <v>433</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>443</v>
+        <v>444</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>452</v>
+        <v>453</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>455</v>
+        <v>456</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>458</v>
+        <v>459</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>464</v>
+        <v>465</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>467</v>
+        <v>468</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>470</v>
+        <v>471</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>476</v>
+        <v>477</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>479</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>482</v>
+        <v>483</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>485</v>
+        <v>486</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>488</v>
+        <v>489</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>494</v>
+        <v>495</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>497</v>
+        <v>498</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>499</v>
+        <v>500</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>502</v>
+        <v>503</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>504</v>
+        <v>505</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>507</v>
+        <v>508</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>510</v>
+        <v>511</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>513</v>
+        <v>514</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>516</v>
+        <v>517</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>519</v>
+        <v>520</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>522</v>
+        <v>523</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>525</v>
+        <v>526</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>528</v>
+        <v>529</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>531</v>
+        <v>532</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>534</v>
+        <v>535</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
